--- a/data/Szenario_Default/Power_ThermalGen.xlsx
+++ b/data/Szenario_Default/Power_ThermalGen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4961A1C4-9A6A-4B6A-B4DB-0554E6606974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F869333-1803-4AB9-A539-049CB4B32C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -956,10 +956,10 @@
   <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="15">
         <v>145591.30710000001</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="15">
         <v>146591.30710000001</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="15">
         <v>147591.30710000001</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="15">
         <v>148591.30710000001</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="15">
         <v>42818.779699999999</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="15">
         <v>43818.779699999999</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="15">
         <v>44818.779699999999</v>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="15">
         <v>45818.779699999999</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="15">
         <v>46818.779699999999</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="U19" s="15"/>
       <c r="V19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="15">
         <v>47818.779699999999</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="15">
         <v>48818.779699999999</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="U21" s="15"/>
       <c r="V21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="15">
         <v>49818.779699999999</v>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="15">
         <v>24781.499100000001</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="U23" s="15"/>
       <c r="V23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="15">
         <v>25781.499100000001</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="U26" s="15"/>
       <c r="V26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="15">
         <v>28781.499100000001</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="15">
         <v>43367.623399999997</v>
